--- a/xlsx/世界贸易中心_intext.xlsx
+++ b/xlsx/世界贸易中心_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="810">
   <si>
     <t>世界贸易中心</t>
   </si>
@@ -26,100 +26,100 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_世界贸易中心</t>
+    <t>纽约</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_世界贸易中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A0%93</t>
   </si>
   <si>
-    <t>曼哈頓</t>
+    <t>曼哈顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>建築</t>
+    <t>建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E4%B8%AD%E5%BF%83_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
   </si>
   <si>
-    <t>世界貿易中心 (消歧義)</t>
+    <t>世界贸易中心 (消歧义)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E4%B8%AD%E5%BF%83%E4%B8%80%E8%99%9F%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>世界貿易中心一號大樓</t>
+    <t>世界贸易中心一号大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E4%B8%AD%E5%BF%83%E4%B8%83%E8%99%9F%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>世界貿易中心七號大樓</t>
+    <t>世界贸易中心七号大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%B8%80%E4%B8%80%E5%9C%8B%E5%AE%B6%E7%B4%80%E5%BF%B5%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>九一一國家紀念博物館</t>
+    <t>九一一国家纪念博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B2%E5%8F%B0%E5%85%AC%E5%9C%92%E5%9F%8E</t>
   </si>
   <si>
-    <t>砲台公園城</t>
+    <t>砲台公园城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%AD%AF%E5%85%8B%E8%8F%B2%E7%88%BE%E5%BE%B7%E5%BB%A3%E5%A0%B4_(%E7%B4%90%E7%B4%84)</t>
   </si>
   <si>
-    <t>布魯克菲爾德廣場 (紐約)</t>
+    <t>布鲁克菲尔德广场 (纽约)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E4%B8%AD%E5%BF%83%E4%BA%8C%E8%99%9F%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>世界貿易中心二號大樓</t>
+    <t>世界贸易中心二号大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%B2%B3_(%E7%B4%90%E7%B4%84%E5%B8%82)</t>
   </si>
   <si>
-    <t>東河 (紐約市)</t>
+    <t>东河 (纽约市)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9C%8B%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>帝國大廈</t>
+    <t>帝国大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%88%A9%E6%96%AF%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>威利斯大廈</t>
+    <t>威利斯大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐約州</t>
+    <t>纽约州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
   </si>
   <si>
-    <t>紐約市</t>
+    <t>纽约市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E7%BA%AC%E5%BA%A6</t>
@@ -137,33 +137,30 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E8%88%87%E6%96%B0%E6%BE%A4%E8%A5%BF%E6%B8%AF%E5%8F%A3%E4%BA%8B%E5%8B%99%E7%AE%A1%E7%90%86%E5%B1%80</t>
   </si>
   <si>
-    <t>紐約與新澤西港口事務管理局</t>
+    <t>纽约与新泽西港口事务管理局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E4%B8%AD%E5%BF%83%E4%B8%89%E8%99%9F%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>世界貿易中心三號大樓</t>
+    <t>世界贸易中心三号大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E4%B8%AD%E5%BF%83%E5%9B%9B%E8%99%9F%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>世界貿易中心四號大樓</t>
+    <t>世界贸易中心四号大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E4%B8%AD%E5%BF%83%E4%BA%94%E8%99%9F%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>世界貿易中心五號大樓</t>
+    <t>世界贸易中心五号大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6</t>
   </si>
   <si>
-    <t>纽约</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A1%BF%E4%B8%8B%E5%9F%8E</t>
   </si>
   <si>
@@ -173,37 +170,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>大樓</t>
+    <t>大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%A8%99</t>
   </si>
   <si>
-    <t>地標</t>
+    <t>地标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A1%BF</t>
   </si>
   <si>
-    <t>曼哈顿</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9B%BD%E5%A4%A7%E5%8E%A6</t>
   </si>
   <si>
-    <t>帝国大厦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E6%96%B0%E8%88%AA%E6%B8%AF%E5%B1%80%E9%81%8E%E5%93%88%E5%BE%B7%E9%81%9C%E6%B2%B3%E6%8D%B7%E9%81%8B</t>
   </si>
   <si>
-    <t>紐新航港局過哈德遜河捷運</t>
+    <t>纽新航港局过哈德逊河捷运</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%A4%A9%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>摩天大樓</t>
+    <t>摩天大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
@@ -221,13 +212,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E9%97%9C%E5%8F%8A%E9%82%8A%E5%A2%83%E4%BF%9D%E8%A1%9B%E5%B1%80</t>
   </si>
   <si>
-    <t>美國海關及邊境保衛局</t>
+    <t>美国海关及边境保卫局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%89%9B_(1976%E5%B9%B4%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>金剛 (1976年電影)</t>
+    <t>金刚 (1976年电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%88%A9%E6%99%AE%C2%B7%E7%8F%80%E8%92%82</t>
@@ -239,7 +230,7 @@
     <t>https://zh.wikipedia.org/wiki/1993%E5%B9%B4%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E4%B8%AD%E5%BF%83%E7%88%86%E7%82%B8%E6%A1%88</t>
   </si>
   <si>
-    <t>1993年世界貿易中心爆炸案</t>
+    <t>1993年世界贸易中心爆炸案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E9%87%8C%C2%B7%E5%B8%8C%E5%B0%94%E5%BC%97%E6%96%AF%E5%9D%A6</t>
@@ -281,7 +272,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E7%88%BE%C2%B7%E9%87%8C%E4%BC%AF%E6%96%AF%E9%87%91</t>
   </si>
   <si>
-    <t>丹尼爾·里伯斯金</t>
+    <t>丹尼尔·里伯斯金</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Memory_Foundations</t>
@@ -317,13 +308,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A0%93%E4%B8%AD%E5%9F%8E</t>
   </si>
   <si>
-    <t>曼哈頓中城</t>
+    <t>曼哈顿中城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%8D%80%E6%9B%B4%E6%96%B0</t>
   </si>
   <si>
-    <t>市區更新</t>
+    <t>市区更新</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8D%AB%C2%B7%E6%B4%9B%E5%85%8B%E8%8F%B2%E5%8B%92</t>
@@ -335,25 +326,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BE%B7%E9%81%9C%E6%B2%B3</t>
   </si>
   <si>
-    <t>哈德遜河</t>
+    <t>哈德逊河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E6%A5%AD%E7%A8%85</t>
   </si>
   <si>
-    <t>物業稅</t>
+    <t>物业税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%9C%B0%E9%90%B5</t>
   </si>
   <si>
-    <t>紐約地鐵</t>
+    <t>纽约地铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%BC%E9%AB%98%E7%97%87</t>
   </si>
   <si>
-    <t>懼高症</t>
+    <t>惧高症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%92%C2%B7%E6%9F%AF%E5%B8%83%E8%A5%BF%E8%80%B6</t>
@@ -365,13 +356,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%AA%E6%87%89%E5%8A%9B</t>
   </si>
   <si>
-    <t>剪應力</t>
+    <t>剪应力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E8%8D%B7%E9%87%8D</t>
   </si>
   <si>
-    <t>結構荷重</t>
+    <t>结构荷重</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%98%E5%BC%B9%E6%80%A7</t>
@@ -395,7 +386,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%86%A8%E6%BD%A4%E5%9C%9F</t>
   </si>
   <si>
-    <t>膨潤土</t>
+    <t>膨润土</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/West_Side_Highway</t>
@@ -413,7 +404,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B5%E6%94%B6</t>
   </si>
   <si>
-    <t>徵收</t>
+    <t>征收</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
@@ -425,13 +416,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%BB%BA%E7%AF%89%E5%B8%AB%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>美國建築師學會</t>
+    <t>美国建筑师学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%89%E6%98%93%E6%96%AF%C2%B7%E8%8A%92%E7%A6%8F%E5%BE%B7</t>
   </si>
   <si>
-    <t>劉易斯·芒福德</t>
+    <t>刘易斯·芒福德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A8%E4%BA%BA%E7%97%87</t>
@@ -455,7 +446,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%87%8C%E7%99%BC%E5%A1%94</t>
   </si>
   <si>
-    <t>哈里發塔</t>
+    <t>哈里发塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97</t>
@@ -491,7 +482,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%90%8A%E6%96%AF%E5%8B%92%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>克萊斯勒大廈</t>
+    <t>克莱斯勒大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%A5%B3%E7%A5%9E%E5%83%8F</t>
@@ -503,13 +494,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A1%E5%85%B5%E7%B4%80%E5%BF%B5%E6%97%A5</t>
   </si>
   <si>
-    <t>亡兵紀念日</t>
+    <t>亡兵纪念日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%8B%95%E7%81%91%E6%B0%B4%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>自動灑水系統</t>
+    <t>自动洒水系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
@@ -527,13 +518,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%8F%B2</t>
   </si>
   <si>
-    <t>人類史</t>
+    <t>人类史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%82%E8%BA%AB%E7%9B%A3%E7%A6%81</t>
   </si>
   <si>
-    <t>終身監禁</t>
+    <t>终身监禁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E8%87%B4%E5%8F%91%E5%85%89</t>
@@ -545,19 +536,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%94%B0%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>西田集團</t>
+    <t>西田集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%88%AA%E7%A9%BA11%E8%99%9F%E7%8F%AD%E6%A9%9F%E6%81%90%E6%80%96%E8%A5%B2%E6%93%8A</t>
   </si>
   <si>
-    <t>美國航空11號班機恐怖襲擊</t>
+    <t>美国航空11号班机恐怖袭击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E8%88%AA%E7%A9%BA175%E8%99%9F%E7%8F%AD%E6%A9%9F%E6%81%90%E6%80%96%E8%A5%B2%E6%93%8A</t>
   </si>
   <si>
-    <t>聯合航空175號班機恐怖襲擊</t>
+    <t>联合航空175号班机恐怖袭击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B8%82%E8%AD%A6%E5%AF%9F%E5%B1%80</t>
@@ -569,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF%E5%B8%82</t>
   </si>
   <si>
-    <t>澤西市</t>
+    <t>泽西市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E6%B3%B0%E7%99%BB%E5%B2%9B</t>
@@ -581,15 +572,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%C2%B7%E5%8D%A1%E6%8B%89%E7%89%B9%E6%8B%89%E7%93%A6</t>
   </si>
   <si>
-    <t>聖地牙哥·卡拉特拉瓦</t>
+    <t>圣地牙哥·卡拉特拉瓦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
   </si>
   <si>
-    <t>纽约州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E4%BF%9D%E9%99%B6%E5%9F%BA</t>
   </si>
   <si>
@@ -611,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A7%99%E6%96%87%E5%BD%A5</t>
   </si>
   <si>
-    <t>槙文彥</t>
+    <t>槙文彦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%A0%B9%E5%A4%A7%E9%80%9A</t>
@@ -629,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E4%B8%AD%E5%BF%83%E8%BB%8A%E7%AB%99_(PATH)</t>
   </si>
   <si>
-    <t>世界貿易中心車站 (PATH)</t>
+    <t>世界贸易中心车站 (PATH)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -647,13 +635,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%AE%E9%80%B2%E8%99%9F%E5%A4%AA%E7%A9%BA%E6%A2%AD</t>
   </si>
   <si>
-    <t>奮進號太空梭</t>
+    <t>奋进号太空梭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%87%AA%E7%84%B6%E5%8F%B2%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>美國自然史博物館</t>
+    <t>美国自然史博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%90%E6%B9%96%E5%9F%8E</t>
@@ -713,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9C%8B%E6%88%B0%E7%88%AD%E5%8D%9A%E7%89%A9%E9%A4%A8%E5%8C%97%E9%A4%A8</t>
   </si>
   <si>
-    <t>帝國戰爭博物館北館</t>
+    <t>帝国战争博物馆北馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%B0%E9%97%BB</t>
@@ -725,7 +713,7 @@
     <t>https://zh.wikinews.org/wiki/%E7%B4%90%E7%B4%84%E4%B8%96%E8%B2%BF%E4%B8%AD%E5%BF%83%E9%87%8D%E5%BB%BA%E5%B7%A5%E4%BD%9C%E6%AD%A3%E5%BC%8F%E9%96%8B%E5%B7%A5</t>
   </si>
   <si>
-    <t>n-紐約世貿中心重建工作正式開工</t>
+    <t>n-纽约世贸中心重建工作正式开工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B4%B8%E6%98%93%E4%B8%AD%E5%BF%83%E5%85%AD%E5%8F%B7%E5%A4%A7%E6%A5%BC</t>
@@ -761,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%8A%80%E8%A1%8C%E5%BB%A3%E5%A0%B4_(%E4%BA%9E%E7%89%B9%E8%98%AD%E5%A4%A7)</t>
   </si>
   <si>
-    <t>美國銀行廣場 (亞特蘭大)</t>
+    <t>美国银行广场 (亚特兰大)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%93%B6%E8%A1%8C%E5%A4%A7%E5%8E%A6</t>
@@ -773,9 +761,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%8E%B1%E6%96%AF%E5%8B%92%E5%A4%A7%E5%8E%A6</t>
   </si>
   <si>
-    <t>克莱斯勒大厦</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/First_Canadian_Place</t>
   </si>
   <si>
@@ -791,13 +776,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E6%BC%A2%E8%80%83%E5%85%8B%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>約翰漢考克中心</t>
+    <t>约翰汉考克中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%99%82%E5%A0%B1%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>紐約時報大廈</t>
+    <t>纽约时报大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9D%E6%99%AE%E5%9B%BD%E9%99%85%E9%85%92%E5%BA%97%E5%A4%A7%E5%8E%A6</t>
@@ -821,13 +806,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%AF%E6%96%AF%E9%A0%93%E5%AF%8C%E5%9C%8B%E9%8A%80%E8%A1%8C%E5%BB%A3%E5%A0%B4</t>
   </si>
   <si>
-    <t>侯斯頓富國銀行廣場</t>
+    <t>侯斯顿富国银行广场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%88%BE%E6%96%AF%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>西爾斯大廈</t>
+    <t>西尔斯大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%81%A9%E5%A1%94</t>
@@ -839,7 +824,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E5%A1%94</t>
   </si>
   <si>
-    <t>大聖地牙哥塔</t>
+    <t>大圣地牙哥塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/One57</t>
@@ -863,25 +848,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E</t>
   </si>
   <si>
-    <t>東亞</t>
+    <t>东亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%9D%B1%E7%9C%81</t>
   </si>
   <si>
-    <t>廣東省</t>
+    <t>广东省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E5%B7%9E%E5%9B%BD%E9%99%85%E9%87%91%E8%9E%8D%E4%B8%AD%E5%BF%83</t>
@@ -911,13 +896,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%A0%E6%B1%9F%E5%9F%8E%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>珠江城大廈</t>
+    <t>珠江城大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%B7%9E%E5%91%A8%E5%A4%A7%E7%A6%8F%E9%87%91%E8%9E%8D%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>廣州周大福金融中心</t>
+    <t>广州周大福金融中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E5%9F%BA100</t>
@@ -929,7 +914,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E8%88%88%E5%BB%A3%E5%A0%B4</t>
   </si>
   <si>
-    <t>信興廣場</t>
+    <t>信兴广场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%9B%E6%A0%BC%E5%B9%BF%E5%9C%BA</t>
@@ -941,7 +926,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%AE%89%E5%9C%8B%E9%9A%9B%E9%87%91%E8%9E%8D%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>平安國際金融中心</t>
+    <t>平安国际金融中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%9C%B3%E9%95%BF%E5%AF%8C%E9%87%91%E8%8C%82%E5%A4%A7%E5%8E%A6</t>
@@ -959,7 +944,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E8%98%87%E7%9C%81</t>
   </si>
   <si>
-    <t>江蘇省</t>
+    <t>江苏省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%AB%E5%B3%B0%E5%A4%A7%E5%8E%A6</t>
@@ -989,7 +974,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E4%B8%AD%E8%8F%AF%E8%A5%BF%E6%9D%91</t>
   </si>
   <si>
-    <t>空中華西村</t>
+    <t>空中华西村</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E5%B8%82</t>
@@ -1079,7 +1064,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%80%A3%E8%A3%95%E6%99%AF%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>大連裕景中心</t>
+    <t>大连裕景中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B7%9E%E4%B8%96%E7%95%8C%E8%B4%B8%E6%98%93%E4%B8%AD%E5%BF%83</t>
@@ -1097,7 +1082,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%93%B6%E5%A4%A7%E5%8E%A6</t>
@@ -1115,43 +1100,43 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%92%B0%E5%BB%A3%E5%A0%B4_(%E9%A6%99%E6%B8%AF)</t>
   </si>
   <si>
-    <t>中環廣場 (香港)</t>
+    <t>中环广场 (香港)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%87%91%E8%9E%8D%E4%B8%AD%E5%BF%83_(%E9%A6%99%E6%B8%AF)</t>
   </si>
   <si>
-    <t>國際金融中心 (香港)</t>
+    <t>国际金融中心 (香港)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E7%90%83%E8%B2%BF%E6%98%93%E5%BB%A3%E5%A0%B4</t>
   </si>
   <si>
-    <t>環球貿易廣場</t>
+    <t>环球贸易广场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A6%82%E5%BF%83%E5%BB%A3%E5%A0%B4</t>
   </si>
   <si>
-    <t>如心廣場</t>
+    <t>如心广场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E5%B3%B6%E6%9D%B1%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>港島東中心</t>
+    <t>港岛东中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E6%97%85%E9%81%8A%E5%A1%94</t>
   </si>
   <si>
-    <t>澳門旅遊塔</t>
+    <t>澳门旅游塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E5%8C%97101</t>
@@ -1163,7 +1148,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%85%89%E4%BA%BA%E5%A3%BD%E4%BF%9D%E9%9A%AA%E6%91%A9%E5%A4%A9%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>新光人壽保險摩天大樓</t>
+    <t>新光人寿保险摩天大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9B%8485%E5%A4%A7%E6%A5%BC</t>
@@ -1175,7 +1160,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E8%B0%B7%E4%B8%96%E8%B2%BF%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>長谷世貿聯合國大樓</t>
+    <t>长谷世贸联合国大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -1193,7 +1178,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%AB%E6%BF%B1%E5%9C%B0%E6%A8%99%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>橫濱地標大廈</t>
+    <t>横滨地标大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%8E%E4%B9%8B%E9%97%A8%E4%B9%8B%E4%B8%98</t>
@@ -1211,7 +1196,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E9%83%BD%E5%BB%B3%E8%88%8D</t>
   </si>
   <si>
-    <t>東京都廳舍</t>
+    <t>东京都厅舍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NTT_DoCoMo%E4%BB%A3%E4%BB%A3%E6%9C%A8%E5%A4%A7%E5%8E%A6</t>
@@ -1229,13 +1214,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E6%9C%AC%E6%9C%A8%E6%96%B0%E5%9F%8E%E6%A3%AE%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>六本木新城森大樓</t>
+    <t>六本木新城森大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%AE%BF%E5%85%AC%E5%9C%92%E5%A1%94</t>
   </si>
   <si>
-    <t>新宿公園塔</t>
+    <t>新宿公园塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E4%BA%AC%E6%AD%8C%E5%89%A7%E5%9F%8E</t>
@@ -1271,7 +1256,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E9%80%9A%E7%B8%BD%E9%83%A8%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>電通總部大廈</t>
+    <t>电通总部大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%AE%BF%E4%BD%8F%E5%8F%8B%E5%A4%A7%E5%8E%A6</t>
@@ -1289,7 +1274,7 @@
     <t>https://zh.wikipedia.org/wiki/Mode%E5%AD%B8%E5%9C%92%E8%9F%B2%E7%B9%AD%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>Mode學園蟲繭大廈</t>
+    <t>Mode学园虫茧大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%B8%E4%B9%8B%E5%86%85%E5%A4%A7%E5%8E%A6</t>
@@ -1313,7 +1298,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%9B%BB%E8%A6%96%E5%8F%B0%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>日本電視台大廈</t>
+    <t>日本电视台大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Acty%E6%B1%90%E7%95%99</t>
@@ -1325,25 +1310,25 @@
     <t>https://zh.wikipedia.org/wiki/JR%E4%B8%AD%E5%A4%AE%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>JR中央大廈</t>
+    <t>JR中央大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE</t>
   </si>
   <si>
-    <t>朝鮮</t>
+    <t>朝鲜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8C%97%E4%BA%9E%E6%B4%B2%E8%B2%BF%E6%98%93%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>東北亞洲貿易大廈</t>
+    <t>东北亚洲贸易大厦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/We%27ve_the_Zenith</t>
@@ -1355,19 +1340,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%82%E5%A4%A9%E4%B8%96%E7%95%8C%E5%A1%94</t>
   </si>
   <si>
-    <t>樂天世界塔</t>
+    <t>乐天世界塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%B3%E4%BA%AC%E9%A3%AF%E5%BA%97</t>
   </si>
   <si>
-    <t>柳京飯店</t>
+    <t>柳京饭店</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>西亞</t>
+    <t>西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8B%92%E7%8E%9B%E6%96%AF%E5%A4%A7%E6%A5%BC</t>
@@ -1391,13 +1376,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%93%88%E5%A7%86%E6%8B%89%E5%A1%94</t>
   </si>
   <si>
-    <t>阿爾哈姆拉塔</t>
+    <t>阿尔哈姆拉塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%BA%97%E5%A8%9C23%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>瑪麗娜23大廈</t>
+    <t>玛丽娜23大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%81%94%E9%85%8B%E5%A4%A7%E5%8E%A6</t>
@@ -1409,19 +1394,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E7%BE%8E%E6%8B%89%E9%98%BF%E8%81%AF%E9%85%8B%E9%85%92%E5%BA%97</t>
   </si>
   <si>
-    <t>朱美拉阿聯酋酒店</t>
+    <t>朱美拉阿联酋酒店</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%9C%8B%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>王國中心</t>
+    <t>王国中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AB%E7%91%B0%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>玫瑰大廈</t>
+    <t>玫瑰大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E6%8B%9C%E5%B8%82%E4%B8%AD%E5%BF%83%E9%98%BF%E5%BE%B7%E9%87%8C%E6%96%AF%E9%85%92%E5%BA%97</t>
@@ -1451,7 +1436,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%87%E6%95%B8%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>指數大廈</t>
+    <t>指数大厦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Landmark_(Abu_Dhabi)</t>
@@ -1493,7 +1478,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E7%99%BC%E5%A1%94</t>
   </si>
   <si>
-    <t>阿爾發塔</t>
+    <t>阿尔发塔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cayan_Tower</t>
@@ -1517,7 +1502,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E4%BA%9E</t>
   </si>
   <si>
-    <t>東南亞</t>
+    <t>东南亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A9%E8%99%B9%E4%B8%AD%E5%BF%83%E7%AC%AC%E4%BA%8C%E6%9C%9F</t>
@@ -1529,13 +1514,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E5%B3%B0%E5%A1%94</t>
   </si>
   <si>
-    <t>雙峰塔</t>
+    <t>双峰塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E9%9B%BB%E8%A8%8A%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>馬來西亞電訊大廈</t>
+    <t>马来西亚电讯大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E9%9A%86%E5%9D%A1%E5%A1%94</t>
@@ -1589,25 +1574,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%85%83%E5%A1%94_(%E6%B3%95%E8%98%AD%E5%85%8B%E7%A6%8F)</t>
   </si>
   <si>
-    <t>歐元塔 (法蘭克福)</t>
+    <t>欧元塔 (法兰克福)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E9%8A%80%E8%A1%8C%E9%9B%99%E5%A1%94</t>
   </si>
   <si>
-    <t>德意志銀行雙塔</t>
+    <t>德意志银行双塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E5%9D%A6%E9%87%91%E8%AB%BE%E9%9B%BB%E8%A6%96%E5%A1%94</t>
   </si>
   <si>
-    <t>奧斯坦金諾電視塔</t>
+    <t>奥斯坦金诺电视塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E8%BC%94%E9%9B%BB%E8%A6%96%E5%A1%94</t>
   </si>
   <si>
-    <t>基輔電視塔</t>
+    <t>基辅电视塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97%E7%94%B5%E8%A7%86%E5%A1%94</t>
@@ -1619,19 +1604,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%97%8B%E5%AE%AE</t>
   </si>
   <si>
-    <t>凱旋宮</t>
+    <t>凯旋宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E5%95%86%E6%A5%AD%E9%8A%80%E8%A1%8C%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>德國商業銀行大廈</t>
+    <t>德国商业银行大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E9%87%8C%E6%B0%B4%E6%99%B6%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>馬德里水晶大廈</t>
+    <t>马德里水晶大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%8A%A0%E5%B9%BF%E6%92%AD%E7%94%B5%E8%A7%86%E5%A1%94</t>
@@ -1661,7 +1646,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E7%8F%BE%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>發現大樓</t>
+    <t>发现大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Q1%E5%A4%A7%E5%8E%A6</t>
@@ -1685,7 +1670,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E5%BE%B7%E6%96%AF%E7%89%B9%E5%A7%86%E5%A1%94</t>
   </si>
   <si>
-    <t>諾德斯特姆塔</t>
+    <t>诺德斯特姆塔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fortune_Center</t>
@@ -1799,7 +1784,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E5%B7%9E%E7%8F%BE%E4%BB%A3%E5%82%B3%E5%AA%92%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>常州現代傳媒中心</t>
+    <t>常州现代传媒中心</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Runhua_Global_Center_1</t>
@@ -1865,13 +1850,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BC%E5%AF%A7%E7%9C%81</t>
   </si>
   <si>
-    <t>遼寧省</t>
+    <t>辽宁省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%80%A3%E5%9C%8B%E9%9A%9B%E8%B2%BF%E6%98%93%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>大連國際貿易中心</t>
+    <t>大连国际贸易中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%BF%9E%E7%BB%BF%E5%9C%B0%E4%B8%AD%E5%BF%83</t>
@@ -1883,7 +1868,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E8%A5%BF%E5%A3%AF%E6%97%8F%E8%87%AA%E6%B2%BB%E5%8D%80</t>
   </si>
   <si>
-    <t>廣西壯族自治區</t>
+    <t>广西壮族自治区</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/China_Resources_Centre_Block_A</t>
@@ -1925,7 +1910,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B2%E5%8D%97%E7%9C%81</t>
   </si>
   <si>
-    <t>雲南省</t>
+    <t>云南省</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Spring_City_66</t>
@@ -1943,7 +1928,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E5%B7%9E%E7%9C%81</t>
   </si>
   <si>
-    <t>貴州省</t>
+    <t>贵州省</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Huaguoyuan_Tower_1</t>
@@ -1979,7 +1964,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%88%E9%96%80%E5%9C%8B%E9%9A%9B%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>廈門國際中心</t>
+    <t>厦门国际中心</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/White_Magnolia_Plaza</t>
@@ -2045,13 +2030,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E9%99%90%E5%A1%94</t>
   </si>
   <si>
-    <t>無限塔</t>
+    <t>无限塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%9C%8B%E5%A1%94</t>
   </si>
   <si>
-    <t>王國塔</t>
+    <t>王国塔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ADNOC_Headquarters</t>
@@ -2171,7 +2156,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%9E</t>
   </si>
   <si>
-    <t>南亞</t>
+    <t>南亚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Oasis_Tower</t>
@@ -2195,7 +2180,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%B8%80%E8%99%9F</t>
   </si>
   <si>
-    <t>世界一號</t>
+    <t>世界一号</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Orchid_Crown</t>
@@ -2237,7 +2222,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E5%8C%97%E9%9B%99%E5%AD%90%E6%98%9F</t>
   </si>
   <si>
-    <t>台北雙子星</t>
+    <t>台北双子星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%88%E8%BF%AA%E6%8B%9C%E5%A1%94</t>
@@ -2321,7 +2306,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%9C%E5%B1%B1%E6%A8%82%E5%A4%A9%E5%A1%94</t>
   </si>
   <si>
-    <t>釜山樂天塔</t>
+    <t>釜山乐天塔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Federation_Tower</t>
@@ -2333,7 +2318,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%BA%9C%E6%81%92%E9%9A%86%E5%BB%A3%E5%A0%B4</t>
   </si>
   <si>
-    <t>市府恒隆廣場</t>
+    <t>市府恒隆广场</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/India_Tower</t>
@@ -2453,13 +2438,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%A4%A9%E5%A4%A7%E6%A8%93%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>摩天大樓列表</t>
+    <t>摩天大楼列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/100%E6%A8%93%E5%B1%A4%E4%BB%A5%E4%B8%8A%E5%BB%BA%E7%AF%89%E7%89%A9%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>100樓層以上建築物列表</t>
+    <t>100楼层以上建筑物列表</t>
   </si>
 </sst>
 </file>
@@ -3671,7 +3656,7 @@
         <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
         <v>80</v>
@@ -3697,10 +3682,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" t="s">
         <v>49</v>
-      </c>
-      <c r="F31" t="s">
-        <v>50</v>
       </c>
       <c r="G31" t="n">
         <v>7</v>
@@ -3726,10 +3711,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" t="s">
         <v>51</v>
-      </c>
-      <c r="F32" t="s">
-        <v>52</v>
       </c>
       <c r="G32" t="n">
         <v>39</v>
@@ -3784,10 +3769,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" t="s">
         <v>53</v>
-      </c>
-      <c r="F34" t="s">
-        <v>54</v>
       </c>
       <c r="G34" t="n">
         <v>3</v>
@@ -3813,10 +3798,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="G35" t="n">
         <v>12</v>
@@ -3842,10 +3827,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="G36" t="n">
         <v>5</v>
@@ -3987,10 +3972,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -4016,10 +4001,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -4045,10 +4030,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G43" t="n">
         <v>6</v>
@@ -4074,10 +4059,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G44" t="n">
         <v>3</v>
@@ -4132,10 +4117,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G46" t="n">
         <v>4</v>
@@ -4277,10 +4262,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -4306,10 +4291,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F52" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -4335,10 +4320,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F53" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -4364,10 +4349,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F54" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4393,10 +4378,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F55" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -4451,10 +4436,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F57" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4480,10 +4465,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F58" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4509,10 +4494,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F59" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4538,10 +4523,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F60" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4567,10 +4552,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F61" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G61" t="n">
         <v>3</v>
@@ -4596,10 +4581,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F62" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -4625,10 +4610,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -4654,10 +4639,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F64" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4683,10 +4668,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F65" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -4712,10 +4697,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F66" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4741,10 +4726,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F67" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4770,10 +4755,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F68" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4799,10 +4784,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F69" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4828,10 +4813,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F70" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4886,10 +4871,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F72" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G72" t="n">
         <v>7</v>
@@ -4915,10 +4900,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F73" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G73" t="n">
         <v>5</v>
@@ -4944,10 +4929,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F74" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4973,10 +4958,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F75" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -5002,10 +4987,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F76" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -5031,10 +5016,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F77" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -5060,10 +5045,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F78" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5089,10 +5074,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F79" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5118,10 +5103,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F80" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -5147,10 +5132,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F81" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5176,10 +5161,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F82" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G82" t="n">
         <v>3</v>
@@ -5205,10 +5190,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F83" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -5234,10 +5219,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F84" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5263,10 +5248,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F85" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5292,10 +5277,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F86" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5321,10 +5306,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F87" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5350,10 +5335,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F88" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5379,10 +5364,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F89" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -5408,10 +5393,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F90" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5437,10 +5422,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F91" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5466,10 +5451,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F92" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5495,10 +5480,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F93" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5524,10 +5509,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F94" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5553,10 +5538,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F95" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5582,10 +5567,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F96" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -5611,10 +5596,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F97" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5640,10 +5625,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F98" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5669,10 +5654,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F99" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5698,10 +5683,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F100" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -5727,10 +5712,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F101" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5756,10 +5741,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F102" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5785,10 +5770,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F103" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5814,10 +5799,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F104" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5843,10 +5828,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F105" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5872,10 +5857,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F106" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5901,10 +5886,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F107" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5930,10 +5915,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F108" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5959,10 +5944,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F109" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5988,10 +5973,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F110" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6017,10 +6002,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F111" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6046,10 +6031,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F112" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6104,10 +6089,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F114" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6133,10 +6118,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F115" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6162,10 +6147,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6191,10 +6176,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F117" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="G117" t="n">
         <v>5</v>
@@ -6220,10 +6205,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F118" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -6249,10 +6234,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F119" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6278,10 +6263,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F120" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6307,10 +6292,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F121" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6336,10 +6321,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F122" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -6365,10 +6350,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F123" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6597,10 +6582,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F131" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -6626,10 +6611,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F132" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -6655,10 +6640,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F133" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6684,10 +6669,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F134" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6713,10 +6698,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F135" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6742,10 +6727,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F136" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6771,10 +6756,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F137" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6800,10 +6785,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F138" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6829,10 +6814,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F139" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6858,10 +6843,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F140" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6887,10 +6872,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F141" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6916,10 +6901,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F142" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6945,10 +6930,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F143" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G143" t="n">
         <v>4</v>
@@ -6974,10 +6959,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F144" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7003,10 +6988,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F145" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7032,10 +7017,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F146" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7061,10 +7046,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F147" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7177,10 +7162,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F151" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7235,10 +7220,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F153" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G153" t="n">
         <v>3</v>
@@ -7264,10 +7249,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F154" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G154" t="n">
         <v>6</v>
@@ -7293,10 +7278,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F155" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7322,10 +7307,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F156" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -7351,10 +7336,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F157" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7380,10 +7365,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F158" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7409,10 +7394,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F159" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7438,10 +7423,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F160" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7467,10 +7452,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F161" t="s">
-        <v>252</v>
+        <v>155</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7496,10 +7481,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F162" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7525,10 +7510,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F163" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7554,10 +7539,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F164" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7583,10 +7568,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F165" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7612,10 +7597,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F166" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7641,10 +7626,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F167" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7670,10 +7655,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F168" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7699,10 +7684,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F169" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7728,10 +7713,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F170" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7757,10 +7742,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F171" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7786,10 +7771,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F172" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7815,10 +7800,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F173" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7844,10 +7829,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F174" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7873,10 +7858,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F175" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G175" t="n">
         <v>3</v>
@@ -7902,10 +7887,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F176" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7931,10 +7916,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F177" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G177" t="n">
         <v>3</v>
@@ -7960,10 +7945,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F178" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -7989,10 +7974,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F179" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -8018,10 +8003,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F180" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8047,10 +8032,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F181" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8076,10 +8061,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F182" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8105,10 +8090,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F183" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8134,10 +8119,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F184" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8163,10 +8148,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F185" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8192,10 +8177,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F186" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8221,10 +8206,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F187" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8250,10 +8235,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F188" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8279,10 +8264,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F189" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8308,10 +8293,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F190" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8337,10 +8322,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F191" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8366,10 +8351,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F192" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -8395,10 +8380,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F193" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8424,10 +8409,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F194" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8453,10 +8438,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F195" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8482,10 +8467,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F196" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8511,10 +8496,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F197" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8540,10 +8525,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F198" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8569,10 +8554,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F199" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8598,10 +8583,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F200" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8627,10 +8612,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F201" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8656,10 +8641,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F202" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8685,10 +8670,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F203" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -8714,10 +8699,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F204" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8743,10 +8728,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F205" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8772,10 +8757,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F206" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -8801,10 +8786,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F207" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8830,10 +8815,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F208" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8859,10 +8844,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F209" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8888,10 +8873,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F210" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8917,10 +8902,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F211" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8946,10 +8931,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F212" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8975,10 +8960,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F213" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9004,10 +8989,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F214" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G214" t="n">
         <v>3</v>
@@ -9033,10 +9018,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F215" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G215" t="n">
         <v>4</v>
@@ -9062,10 +9047,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F216" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9091,10 +9076,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F217" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9120,10 +9105,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F218" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9149,10 +9134,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F219" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G219" t="n">
         <v>9</v>
@@ -9178,10 +9163,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F220" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9207,10 +9192,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F221" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9236,10 +9221,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F222" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9265,10 +9250,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F223" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9294,10 +9279,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F224" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G224" t="n">
         <v>3</v>
@@ -9323,10 +9308,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F225" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9352,10 +9337,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F226" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9381,10 +9366,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F227" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9410,10 +9395,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F228" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9439,10 +9424,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F229" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G229" t="n">
         <v>4</v>
@@ -9468,10 +9453,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F230" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9497,10 +9482,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F231" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9526,10 +9511,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F232" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9555,10 +9540,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F233" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9584,10 +9569,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F234" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9613,10 +9598,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F235" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9642,10 +9627,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F236" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9671,10 +9656,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F237" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9700,10 +9685,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F238" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9729,10 +9714,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F239" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9758,10 +9743,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F240" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9787,10 +9772,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F241" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9816,10 +9801,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F242" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9845,10 +9830,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F243" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9874,10 +9859,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F244" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9903,10 +9888,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F245" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9932,10 +9917,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F246" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9961,10 +9946,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F247" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9990,10 +9975,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F248" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10019,10 +10004,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F249" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10048,10 +10033,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F250" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10077,10 +10062,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F251" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10106,10 +10091,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F252" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10135,10 +10120,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F253" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10164,10 +10149,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F254" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -10193,10 +10178,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F255" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G255" t="n">
         <v>2</v>
@@ -10222,10 +10207,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F256" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10251,10 +10236,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F257" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G257" t="n">
         <v>2</v>
@@ -10280,10 +10265,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F258" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10309,10 +10294,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F259" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10338,10 +10323,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F260" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G260" t="n">
         <v>3</v>
@@ -10367,10 +10352,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F261" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10396,10 +10381,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F262" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10425,10 +10410,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F263" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10454,10 +10439,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F264" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10483,10 +10468,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F265" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10512,10 +10497,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F266" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10541,10 +10526,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F267" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10570,10 +10555,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F268" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10599,10 +10584,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F269" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10628,10 +10613,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F270" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10657,10 +10642,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F271" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10686,10 +10671,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F272" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10715,10 +10700,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F273" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -10744,10 +10729,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F274" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10773,10 +10758,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F275" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10802,10 +10787,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F276" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10831,10 +10816,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F277" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10860,10 +10845,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F278" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10889,10 +10874,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F279" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10918,10 +10903,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F280" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10947,10 +10932,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F281" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10976,10 +10961,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F282" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11005,10 +10990,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F283" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11034,10 +11019,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F284" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11063,10 +11048,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F285" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11092,10 +11077,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F286" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -11121,10 +11106,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F287" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11150,10 +11135,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F288" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11179,10 +11164,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F289" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11208,10 +11193,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F290" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11237,10 +11222,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F291" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11266,10 +11251,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F292" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11295,10 +11280,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F293" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11324,10 +11309,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F294" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G294" t="n">
         <v>2</v>
@@ -11353,10 +11338,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F295" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11382,10 +11367,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F296" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11411,10 +11396,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F297" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11440,10 +11425,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F298" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11469,10 +11454,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F299" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11498,10 +11483,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F300" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11527,10 +11512,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F301" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11556,10 +11541,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F302" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11585,10 +11570,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F303" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11614,10 +11599,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F304" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11643,10 +11628,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F305" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11672,10 +11657,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F306" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11701,10 +11686,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F307" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11730,10 +11715,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F308" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11759,10 +11744,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F309" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G309" t="n">
         <v>2</v>
@@ -11788,10 +11773,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F310" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11817,10 +11802,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F311" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11846,10 +11831,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F312" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11875,10 +11860,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F313" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11904,10 +11889,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F314" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11933,10 +11918,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F315" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G315" t="n">
         <v>2</v>
@@ -11962,10 +11947,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F316" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11991,10 +11976,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F317" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12020,10 +12005,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F318" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12049,10 +12034,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F319" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12078,10 +12063,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F320" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12107,10 +12092,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F321" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12136,10 +12121,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F322" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12165,10 +12150,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F323" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12194,10 +12179,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F324" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12223,10 +12208,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F325" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12252,10 +12237,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F326" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12281,10 +12266,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F327" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12310,10 +12295,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F328" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12339,10 +12324,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F329" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12368,10 +12353,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F330" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12397,10 +12382,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F331" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12426,10 +12411,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F332" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12455,10 +12440,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F333" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12484,10 +12469,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F334" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12513,10 +12498,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F335" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12542,10 +12527,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F336" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12571,10 +12556,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F337" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12600,10 +12585,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F338" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12629,10 +12614,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F339" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12658,10 +12643,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F340" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12687,10 +12672,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F341" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12716,10 +12701,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F342" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12745,10 +12730,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F343" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12774,10 +12759,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F344" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12803,10 +12788,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F345" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12832,10 +12817,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F346" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12861,10 +12846,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F347" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12890,10 +12875,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F348" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12919,10 +12904,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F349" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12948,10 +12933,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F350" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12977,10 +12962,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F351" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13006,10 +12991,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F352" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13035,10 +13020,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F353" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13064,10 +13049,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F354" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13093,10 +13078,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F355" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13122,10 +13107,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F356" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13151,10 +13136,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F357" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13180,10 +13165,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F358" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13209,10 +13194,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F359" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13238,10 +13223,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F360" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13267,10 +13252,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F361" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13296,10 +13281,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F362" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13325,10 +13310,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F363" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13354,10 +13339,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F364" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13383,10 +13368,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F365" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13412,10 +13397,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F366" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13441,10 +13426,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F367" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13470,10 +13455,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="F368" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13499,10 +13484,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F369" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13528,10 +13513,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F370" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13557,10 +13542,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F371" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13586,10 +13571,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="F372" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13615,10 +13600,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F373" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13644,10 +13629,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F374" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13673,10 +13658,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F375" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13702,10 +13687,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F376" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13731,10 +13716,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="F377" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13760,10 +13745,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F378" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13789,10 +13774,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="F379" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13818,10 +13803,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="F380" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13847,10 +13832,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="F381" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13876,10 +13861,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F382" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13905,10 +13890,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="F383" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13934,10 +13919,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="F384" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13963,10 +13948,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F385" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13992,10 +13977,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="F386" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14021,10 +14006,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="F387" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14050,10 +14035,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F388" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14079,10 +14064,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="F389" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14108,10 +14093,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="F390" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14137,10 +14122,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="F391" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14166,10 +14151,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="F392" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14195,10 +14180,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="F393" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14224,10 +14209,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="F394" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14253,10 +14238,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="F395" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G395" t="n">
         <v>4</v>
@@ -14282,10 +14267,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F396" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14311,10 +14296,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F397" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14340,10 +14325,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="F398" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14369,10 +14354,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="F399" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14398,10 +14383,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="F400" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14427,10 +14412,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="F401" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14456,10 +14441,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="F402" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14485,10 +14470,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="F403" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="G403" t="n">
         <v>2</v>
@@ -14514,10 +14499,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="F404" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14543,10 +14528,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="F405" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14572,10 +14557,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="F406" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14601,10 +14586,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="F407" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14630,10 +14615,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="F408" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14659,10 +14644,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="F409" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14688,10 +14673,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="F410" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14717,10 +14702,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="F411" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14746,10 +14731,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="F412" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14775,10 +14760,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="F413" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -14804,10 +14789,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="F414" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -14833,10 +14818,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="F415" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -14862,10 +14847,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="F416" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -14891,10 +14876,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="F417" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -14920,10 +14905,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="F418" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -14949,10 +14934,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="F419" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -14978,10 +14963,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="F420" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15007,10 +14992,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="F421" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15036,10 +15021,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="F422" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15065,10 +15050,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="F423" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15094,10 +15079,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="F424" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15123,10 +15108,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="F425" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15152,10 +15137,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="F426" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15181,10 +15166,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F427" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15210,10 +15195,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="F428" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15239,10 +15224,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="F429" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15268,10 +15253,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F430" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15297,10 +15282,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="F431" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15326,10 +15311,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F432" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15355,10 +15340,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="F433" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15384,10 +15369,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="F434" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15413,10 +15398,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="F435" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15442,10 +15427,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="F436" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15471,10 +15456,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="F437" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15500,10 +15485,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="F438" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15529,10 +15514,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="F439" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15558,10 +15543,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="F440" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15587,10 +15572,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="F441" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -15616,10 +15601,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="F442" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -15645,10 +15630,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="F443" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
